--- a/tests/bin/OpenRefine_exports/2_DB2_17-18.xlsx
+++ b/tests/bin/OpenRefine_exports/2_DB2_17-18.xlsx
@@ -128,7 +128,7 @@
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G2" t="n">
         <v>2.0</v>
@@ -161,7 +161,7 @@
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G3" t="n">
         <v>3.0</v>
@@ -194,7 +194,7 @@
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
@@ -227,7 +227,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G5" t="n">
         <v>2.0</v>
